--- a/galaxyserver/galaxy后台状态码表.xlsx
+++ b/galaxyserver/galaxy后台状态码表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,46 @@
   </si>
   <si>
     <t>修改招聘信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入留言电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入留言邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入留言的楼栋以及房间号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入留言姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加留言失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认删除留言的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言删除失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类查询失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认分类查询合作伙伴classify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C60"/>
+  <dimension ref="B3:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -972,45 +1012,80 @@
       <c r="B52" s="1">
         <v>547</v>
       </c>
+      <c r="C52" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <v>548</v>
       </c>
+      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <v>549</v>
       </c>
+      <c r="C54" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <v>550</v>
       </c>
+      <c r="C55" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
         <v>551</v>
       </c>
+      <c r="C56" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <v>552</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <v>553</v>
       </c>
+      <c r="C58" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="1">
         <v>554</v>
       </c>
+      <c r="C59" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B60" s="1">
         <v>555</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B61" s="1">
+        <v>556</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
